--- a/QA Railway/TestData/LoginData.xlsx
+++ b/QA Railway/TestData/LoginData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAEE48A-BE45-46B3-BB00-7BFAC74FBDA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3AAF50-9279-4B2F-A978-2172268F00FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3384" yWindow="3384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3732" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
@@ -49,10 +49,7 @@
     <t>exp</t>
   </si>
   <si>
-    <t>thangnguyen290197@gmail.com</t>
-  </si>
-  <si>
-    <t>rockboy12335</t>
+    <t>lehuyanh98@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -473,7 +470,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,8 +495,8 @@
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
+      <c r="B2" s="1">
+        <v>12345678</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
